--- a/biology/Zoologie/Anatinae/Anatinae.xlsx
+++ b/biology/Zoologie/Anatinae/Anatinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anatinés, Canards
-Les anatinés (Anatinae) sont la sous-famille d'oiseaux de la famille des anatidés qui regroupe canards de surface, canards plongeurs, tadornes et ouettes (excluant donc les cygnes au sens large)[1].
+Les anatinés (Anatinae) sont la sous-famille d'oiseaux de la famille des anatidés qui regroupe canards de surface, canards plongeurs, tadornes et ouettes (excluant donc les cygnes au sens large).
 Les dernières[pas clair] études y intègrent la sous-famille des tadorninés qui y prend le rang de tribu.
 Dans d'anciennes classifications élevant certaines tribus d'anatinés au rang de sous-famille, Anatinae correspond à la tribu Anatini.
 </t>
@@ -514,10 +526,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La classification de la famille des anatidés a toujours été l'objet de débat et a récemment[Quand ?] été bousculée par les analyses ADN[réf. nécessaire]. Certaines sous-familles ont été rétrogradées[Quand ?] au rang de tribu, notamment les tadorninés replacé au sein des anatinés. Certains genres des anatinés se sont révélés[Comment ?] être plus proches des oies et sont aujourd'hui[Quand ?] placé chez les ansérinés.
-Liste des genres d'après Donne-Goussé et al. (2002)[2] et Gonzales et al. (2009)[3]:
+Liste des genres d'après Donne-Goussé et al. (2002) et Gonzales et al. (2009):
 Tribu Anatini - les canards de surface :
 Genre Amazonetta - le Canard amazonette
 Genre Anas - canards et sarcelles (ce genre est paraphylétique)
@@ -579,7 +593,9 @@
           <t>Sous articles sur ce taxon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Canard de surface
 Canard plongeur</t>
